--- a/web/cfg/gchservtemp.xlsx
+++ b/web/cfg/gchservtemp.xlsx
@@ -39,38 +39,16 @@
 Tickets Absents</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">       
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">      Traités      &lt; 1mn</t>
-    </r>
+    <t xml:space="preserve">       
+      Traités      &lt; 1mn</t>
   </si>
   <si>
     <t xml:space="preserve">
 Sans Affectation</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="64"/>
-        <rFont val="Tahoma"/>
-      </rPr>
-      <t xml:space="preserve">Nb.Absents /Nb.Tickets%</t>
-    </r>
+    <t xml:space="preserve"> 
+Nb.Absents /Nb.Tickets%</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -341,7 +319,7 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="0" tint="0"/>
       <sz val="16"/>
       <u val="single"/>
     </font>
@@ -355,7 +333,7 @@
     <font>
       <name val="Tahoma"/>
       <b/>
-      <color indexed="64"/>
+      <color theme="0" tint="0"/>
       <sz val="10"/>
     </font>
     <font>
@@ -376,7 +354,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,24 +461,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB83DBA"/>
+        <bgColor rgb="FFB83DBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -710,27 +694,27 @@
     <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="17" fillId="18" borderId="9" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="18" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="19" borderId="9" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="20" borderId="9" numFmtId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="20" fillId="20" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="20" fillId="19" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="21" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,8 +724,7 @@
     <xf fontId="22" fillId="21" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="23" fillId="19" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="23" fillId="22" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1295,7 @@
   <cols>
     <col bestFit="1" hidden="1" min="1" max="1" width="0"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="29.140599999999999"/>
-    <col customWidth="1" min="3" max="3" width="26.28125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="26.28125"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="11.7109375"/>
     <col bestFit="1" customWidth="1" min="5" max="9" width="13.425800000000001"/>
     <col bestFit="1" customWidth="1" min="10" max="10" width="2.140625"/>
@@ -1420,7 +1403,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -1484,53 +1467,53 @@
       </c>
     </row>
     <row r="8" ht="25.5">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>53</v>
       </c>
       <c r="S8" s="8">
